--- a/Documents/Timeline.xlsx
+++ b/Documents/Timeline.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Milestone</t>
   </si>
@@ -32,17 +32,19 @@
     <t>Estimated Finish</t>
   </si>
   <si>
-    <t>Implementation of the paper: 
-https://arxiv.org/pdf/1511.05942.pdf
+    <t>Based on research questions, use Santander data set the different implementations proposed</t>
+  </si>
+  <si>
+    <t>Expand the research on other datasets</t>
+  </si>
+  <si>
+    <t>Write thesis / analyse computational impact / implement and/or analyse system in PEGA</t>
+  </si>
+  <si>
+    <t>Implementation of the paper:  https://arxiv.org/pdf/1511.05942.pdf
 Using Santander dataset
 Research literature and prepare research questions.
 Write proporsal of the thesis</t>
-  </si>
-  <si>
-    <t>Based on research questions, use Santander data set the different implementations proposed</t>
-  </si>
-  <si>
-    <t>Expand the research on other datasets</t>
   </si>
 </sst>
 </file>
@@ -50,10 +52,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -81,12 +91,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -370,7 +381,7 @@
   <dimension ref="A3:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E11" sqref="D11:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -380,16 +391,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1">
         <v>42802</v>
@@ -397,34 +408,33 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1">
-        <v>42823</v>
+        <v>42830</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>42858</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
-        <v>42851</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
-        <v>42803</v>
+        <v>42907</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B8" s="1">
-        <v>42803</v>
-      </c>
+      <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B9" s="1">
-        <v>42803</v>
-      </c>
+      <c r="B9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Timeline.xlsx
+++ b/Documents/Timeline.xlsx
@@ -381,7 +381,7 @@
   <dimension ref="A3:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="D11:E11"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Documents/Timeline.xlsx
+++ b/Documents/Timeline.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Milestone</t>
   </si>
@@ -32,19 +32,48 @@
     <t>Estimated Finish</t>
   </si>
   <si>
-    <t>Based on research questions, use Santander data set the different implementations proposed</t>
-  </si>
-  <si>
-    <t>Expand the research on other datasets</t>
-  </si>
-  <si>
-    <t>Write thesis / analyse computational impact / implement and/or analyse system in PEGA</t>
+    <t>Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finished thesis
+</t>
+  </si>
+  <si>
+    <t>Evangelos not available from (mid?) July</t>
+  </si>
+  <si>
+    <t>Use feedback obtained in the middle presention and expand the research on other datasets</t>
   </si>
   <si>
     <t>Implementation of the paper:  https://arxiv.org/pdf/1511.05942.pdf
-Using Santander dataset
-Research literature and prepare research questions.
-Write proporsal of the thesis</t>
+Using Santander dataset.
+Research literature and prepare research questions  (improvement of baseline implementation).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First version thesis </t>
+  </si>
+  <si>
+    <t>Write thesis 
+At the same time, different options can be considered. Eg:
+- analyse computational impact 
+- implementation in PEGA systems</t>
+  </si>
+  <si>
+    <t>Evaluation on different datasets and comparisson with baseline model / ML Learning model with handcrafted features</t>
+  </si>
+  <si>
+    <t>Write thesis proporsal
+First RNN model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Presentation Uva-PEGA
+RNN model improved</t>
+  </si>
+  <si>
+    <t>Based on research questions, use Santander dataset to explore the different implementations/improvement proposed.
+Obtain feedback from presentation
+Depend on the situation we could add another dataset here</t>
   </si>
 </sst>
 </file>
@@ -91,13 +120,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -378,63 +410,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B9"/>
+  <dimension ref="A3:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="83.77734375" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="53.44140625" customWidth="1"/>
+    <col min="2" max="2" width="65.88671875" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1">
+        <v>42802</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1">
+        <v>42836</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1">
-        <v>42802</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1">
-        <v>42830</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="C6" s="1">
+        <v>42865</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1">
+        <v>42907</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1">
-        <v>42858</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="1">
-        <v>42907</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B9" s="1"/>
+      <c r="C8" s="1">
+        <v>42931</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
